--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H2">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I2">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J2">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N2">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q2">
-        <v>46.29872007221111</v>
+        <v>78.21864173893233</v>
       </c>
       <c r="R2">
-        <v>46.29872007221111</v>
+        <v>703.9677756503909</v>
       </c>
       <c r="S2">
-        <v>0.02043954049363073</v>
+        <v>0.02142117898757857</v>
       </c>
       <c r="T2">
-        <v>0.02043954049363073</v>
+        <v>0.02142117898757857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H3">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I3">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J3">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N3">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q3">
-        <v>18.02187158804799</v>
+        <v>28.03159909348867</v>
       </c>
       <c r="R3">
-        <v>18.02187158804799</v>
+        <v>252.284391841398</v>
       </c>
       <c r="S3">
-        <v>0.007956132988566393</v>
+        <v>0.007676813201306074</v>
       </c>
       <c r="T3">
-        <v>0.007956132988566393</v>
+        <v>0.007676813201306073</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H4">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I4">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J4">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N4">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q4">
-        <v>24.67209538289047</v>
+        <v>40.48811092315033</v>
       </c>
       <c r="R4">
-        <v>24.67209538289047</v>
+        <v>364.392998308353</v>
       </c>
       <c r="S4">
-        <v>0.0108920136853629</v>
+        <v>0.01108818884695679</v>
       </c>
       <c r="T4">
-        <v>0.0108920136853629</v>
+        <v>0.01108818884695679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H5">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I5">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J5">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N5">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q5">
-        <v>33.08980725342054</v>
+        <v>51.292623100397</v>
       </c>
       <c r="R5">
-        <v>33.08980725342054</v>
+        <v>461.633607903573</v>
       </c>
       <c r="S5">
-        <v>0.01460818904340878</v>
+        <v>0.01404714318414358</v>
       </c>
       <c r="T5">
-        <v>0.01460818904340878</v>
+        <v>0.01404714318414357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H6">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I6">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J6">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N6">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q6">
-        <v>9.719557072851215</v>
+        <v>15.74438644693133</v>
       </c>
       <c r="R6">
-        <v>9.719557072851215</v>
+        <v>141.699478022382</v>
       </c>
       <c r="S6">
-        <v>0.004290902212001682</v>
+        <v>0.004311802309927531</v>
       </c>
       <c r="T6">
-        <v>0.004290902212001682</v>
+        <v>0.00431180230992753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H7">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I7">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J7">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N7">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q7">
-        <v>8.165992192999349</v>
+        <v>12.86095434278822</v>
       </c>
       <c r="R7">
-        <v>8.165992192999349</v>
+        <v>115.748589085094</v>
       </c>
       <c r="S7">
-        <v>0.003605048429830414</v>
+        <v>0.003522137418947502</v>
       </c>
       <c r="T7">
-        <v>0.003605048429830414</v>
+        <v>0.003522137418947502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H8">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I8">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J8">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N8">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q8">
-        <v>143.7679431239137</v>
+        <v>210.4200370224493</v>
       </c>
       <c r="R8">
-        <v>143.7679431239137</v>
+        <v>1893.780333202044</v>
       </c>
       <c r="S8">
-        <v>0.06346937216804352</v>
+        <v>0.05762622790964771</v>
       </c>
       <c r="T8">
-        <v>0.06346937216804352</v>
+        <v>0.05762622790964769</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H9">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I9">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J9">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N9">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q9">
-        <v>55.96196623612671</v>
+        <v>75.40926290611466</v>
       </c>
       <c r="R9">
-        <v>55.96196623612671</v>
+        <v>678.6833661550321</v>
       </c>
       <c r="S9">
-        <v>0.02470558307448866</v>
+        <v>0.02065179453543527</v>
       </c>
       <c r="T9">
-        <v>0.02470558307448866</v>
+        <v>0.02065179453543527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H10">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I10">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J10">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N10">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q10">
-        <v>76.61240743206085</v>
+        <v>108.9191733583613</v>
       </c>
       <c r="R10">
-        <v>76.61240743206085</v>
+        <v>980.2725602252519</v>
       </c>
       <c r="S10">
-        <v>0.03382215321675865</v>
+        <v>0.0298289136172413</v>
       </c>
       <c r="T10">
-        <v>0.03382215321675865</v>
+        <v>0.0298289136172413</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H11">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I11">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J11">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N11">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q11">
-        <v>102.7512967911693</v>
+        <v>137.984953609748</v>
       </c>
       <c r="R11">
-        <v>102.7512967911693</v>
+        <v>1241.864582487732</v>
       </c>
       <c r="S11">
-        <v>0.0453617138499845</v>
+        <v>0.03778895060249974</v>
       </c>
       <c r="T11">
-        <v>0.0453617138499845</v>
+        <v>0.03778895060249973</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H12">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I12">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J12">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N12">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q12">
-        <v>30.18141162995162</v>
+        <v>42.35479299316534</v>
       </c>
       <c r="R12">
-        <v>30.18141162995162</v>
+        <v>381.1931369384881</v>
       </c>
       <c r="S12">
-        <v>0.01332421682938917</v>
+        <v>0.0115994036909598</v>
       </c>
       <c r="T12">
-        <v>0.01332421682938917</v>
+        <v>0.01159940369095979</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H13">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I13">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J13">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N13">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q13">
-        <v>25.35724312297142</v>
+        <v>34.59792229563289</v>
       </c>
       <c r="R13">
-        <v>25.35724312297142</v>
+        <v>311.381300660696</v>
       </c>
       <c r="S13">
-        <v>0.01119448651734751</v>
+        <v>0.009475085089903834</v>
       </c>
       <c r="T13">
-        <v>0.01119448651734751</v>
+        <v>0.009475085089903834</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H14">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I14">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J14">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N14">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q14">
-        <v>559.2026565555453</v>
+        <v>971.5850972275216</v>
       </c>
       <c r="R14">
-        <v>559.2026565555453</v>
+        <v>8744.265875047695</v>
       </c>
       <c r="S14">
-        <v>0.2468717347906392</v>
+        <v>0.2660810493084222</v>
       </c>
       <c r="T14">
-        <v>0.2468717347906392</v>
+        <v>0.2660810493084222</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H15">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I15">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J15">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N15">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q15">
-        <v>217.6707790716696</v>
+        <v>348.1917267445233</v>
       </c>
       <c r="R15">
-        <v>217.6707790716696</v>
+        <v>3133.72554070071</v>
       </c>
       <c r="S15">
-        <v>0.09609532825478517</v>
+        <v>0.09535677345923563</v>
       </c>
       <c r="T15">
-        <v>0.09609532825478517</v>
+        <v>0.09535677345923561</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H16">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I16">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J16">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N16">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q16">
-        <v>297.9931466655177</v>
+        <v>502.9190524571316</v>
       </c>
       <c r="R16">
-        <v>297.9931466655177</v>
+        <v>4526.271472114185</v>
       </c>
       <c r="S16">
-        <v>0.1315553211534689</v>
+        <v>0.1377308375528266</v>
       </c>
       <c r="T16">
-        <v>0.1315553211534689</v>
+        <v>0.1377308375528266</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H17">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I17">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J17">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N17">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q17">
-        <v>399.6634916076206</v>
+        <v>637.1262284045649</v>
       </c>
       <c r="R17">
-        <v>399.6634916076206</v>
+        <v>5734.136055641085</v>
       </c>
       <c r="S17">
-        <v>0.1764398261506773</v>
+        <v>0.1744851952541888</v>
       </c>
       <c r="T17">
-        <v>0.1764398261506773</v>
+        <v>0.1744851952541888</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H18">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I18">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J18">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N18">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q18">
-        <v>117.3942201254046</v>
+        <v>195.5673340363766</v>
       </c>
       <c r="R18">
-        <v>117.3942201254046</v>
+        <v>1760.10600632739</v>
       </c>
       <c r="S18">
-        <v>0.0518261393021013</v>
+        <v>0.05355862456036014</v>
       </c>
       <c r="T18">
-        <v>0.0518261393021013</v>
+        <v>0.05355862456036013</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H19">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I19">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J19">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N19">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q19">
-        <v>98.6300381655237</v>
+        <v>159.7510682591811</v>
       </c>
       <c r="R19">
-        <v>98.6300381655237</v>
+        <v>1437.75961433263</v>
       </c>
       <c r="S19">
-        <v>0.04354229783951538</v>
+        <v>0.0437498804704188</v>
       </c>
       <c r="T19">
-        <v>0.04354229783951538</v>
+        <v>0.0437498804704188</v>
       </c>
     </row>
   </sheetData>
